--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1349961.899777099</v>
+        <v>-1352642.762840507</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>227.8718729469213</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.46800410610522</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>95.61920997608593</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -713,16 +713,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>9.953401503585773</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,13 +826,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>94.59584533296498</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>220.8789552701356</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>62.66452462585474</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.5725523657617</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>204.3847403725752</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>381.7046779641329</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>225.5958956437374</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>43.14053296631619</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>22.80723630617436</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>15.51491006411347</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229294</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1470961459096</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>98.20549876776153</v>
+        <v>133.8107367464766</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.39152647956317</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>46.86766651429448</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>127.996768116959</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>251.7863045849735</v>
       </c>
       <c r="V25" t="n">
-        <v>48.4745767553171</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>9.14614278817986</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>44.75138076689395</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>156.523885790703</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261735</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>514.7427041430119</v>
+        <v>1134.226501951988</v>
       </c>
       <c r="C2" t="n">
-        <v>514.7427041430119</v>
+        <v>904.0528929146935</v>
       </c>
       <c r="D2" t="n">
-        <v>156.4770055362614</v>
+        <v>904.0528929146935</v>
       </c>
       <c r="E2" t="n">
-        <v>117.6204357321147</v>
+        <v>518.2646403164493</v>
       </c>
       <c r="F2" t="n">
-        <v>117.6204357321147</v>
+        <v>518.2646403164493</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="3">
@@ -4395,40 +4395,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.3304604754449</v>
+        <v>1738.785038214516</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1738.785038214516</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1588.66839880218</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1440.755305219787</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1293.865357721877</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936618</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>1002.609167878781</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>2364.204562993551</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>2141.226082188286</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>2141.226082188286</v>
       </c>
       <c r="V4" t="n">
-        <v>1279.178225384193</v>
+        <v>2141.226082188286</v>
       </c>
       <c r="W4" t="n">
-        <v>989.7610553472321</v>
+        <v>2141.226082188286</v>
       </c>
       <c r="X4" t="n">
-        <v>761.7715044492147</v>
+        <v>2141.226082188286</v>
       </c>
       <c r="Y4" t="n">
-        <v>540.9789253056846</v>
+        <v>1920.433503044756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854568</v>
+        <v>906.1570541554049</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450451</v>
+        <v>537.1945372149933</v>
       </c>
       <c r="D5" t="n">
-        <v>136.2302827166252</v>
+        <v>537.1945372149933</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>537.1945372149933</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>126.2086324253857</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>114.5442861900786</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>114.5442861900786</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
         <v>795.755353087292</v>
@@ -4577,40 +4577,40 @@
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056584</v>
+        <v>2022.530799662411</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.50778578647</v>
+        <v>1669.762144392296</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.04202752539</v>
+        <v>1296.296386131217</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>906.1570541554049</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>458.7060632252719</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>1092.885047004311</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1456.147065963531</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736638</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>367.9721493962184</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>367.9721493962184</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>367.9721493962184</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>367.9721493962184</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693238</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096592</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1244.744376093917</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>990.0598878880302</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>816.7542794377658</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>588.7647285397485</v>
+        <v>885.8952291320794</v>
       </c>
       <c r="Y7" t="n">
-        <v>367.9721493962184</v>
+        <v>665.1026499885493</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1977.695380320763</v>
+        <v>1511.231752124759</v>
       </c>
       <c r="C8" t="n">
-        <v>1608.732863380351</v>
+        <v>1142.269235184348</v>
       </c>
       <c r="D8" t="n">
-        <v>1608.732863380351</v>
+        <v>1142.269235184348</v>
       </c>
       <c r="E8" t="n">
-        <v>1222.944610782107</v>
+        <v>756.4809825861034</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>345.4950777964959</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664334</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320763</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W8" t="n">
-        <v>1977.695380320763</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="X8" t="n">
-        <v>1977.695380320763</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.695380320763</v>
+        <v>1897.831592188881</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J9" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>664.9787363064644</v>
+        <v>687.7175161961458</v>
       </c>
       <c r="C10" t="n">
-        <v>664.9787363064644</v>
+        <v>518.7813332682389</v>
       </c>
       <c r="D10" t="n">
-        <v>514.8620968941286</v>
+        <v>368.6646938559031</v>
       </c>
       <c r="E10" t="n">
-        <v>514.8620968941286</v>
+        <v>368.6646938559031</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800308</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1613.408507644018</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1390.430026838753</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.311689342591</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>846.6272011367041</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>846.6272011367041</v>
+        <v>869.3659810263855</v>
       </c>
       <c r="X10" t="n">
-        <v>846.6272011367041</v>
+        <v>869.3659810263855</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.6272011367041</v>
+        <v>869.3659810263855</v>
       </c>
     </row>
     <row r="11">
@@ -5030,49 +5030,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,43 +5103,43 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8178837532263</v>
+        <v>945.4026036630049</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>929.7309773356176</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>779.6143379232818</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408887</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5191,58 +5191,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2245.425363523663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2245.425363523663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.350136867861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.665648661974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.248478625013</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.258927726996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.466348583466</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5270,55 +5270,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,13 +5349,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5364,13 +5364,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>702.4944101284095</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>533.5582272005026</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
         <v>235.5284942057738</v>
@@ -5428,58 +5428,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603203</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947401</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741514</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704553</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806536</v>
       </c>
       <c r="Y16" t="n">
-        <v>884.1428749586493</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5537,28 +5537,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,13 +5586,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
         <v>577.3880777468471</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>282.8695714929399</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5713,10 +5713,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5835,19 +5835,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>446.9048623224652</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6078,13 +6078,13 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1520.445529061503</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O24" t="n">
-        <v>2072.35525930079</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2495.978408795859</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>719.5738700011939</v>
+        <v>615.644930552589</v>
       </c>
       <c r="C25" t="n">
-        <v>550.637687073287</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1790.177183667224</v>
       </c>
       <c r="V25" t="n">
-        <v>1639.421634909942</v>
+        <v>1535.492695461337</v>
       </c>
       <c r="W25" t="n">
-        <v>1350.004464872981</v>
+        <v>1246.075525424376</v>
       </c>
       <c r="X25" t="n">
-        <v>1122.014913974964</v>
+        <v>1018.085974526359</v>
       </c>
       <c r="Y25" t="n">
-        <v>901.2223348314336</v>
+        <v>797.2933953828287</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,19 +6221,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6306,10 +6306,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687895</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
         <v>1501.8401750111</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.550723916711</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6409,25 +6409,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2401.759668664206</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2182.158203687148</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469508</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,10 +6534,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,13 +6549,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,64 +6686,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479719</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797191</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.195150674524</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,52 +6832,52 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,19 +7108,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797193</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.195150674524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,28 +7819,28 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>35.91627445172284</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878351</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>343.4623659661565</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>324.1199863828085</v>
+        <v>315.9284927968681</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>151.7319110345144</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>47.87918985573498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>120.3791545843333</v>
+        <v>84.77391660561824</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>47.042436167006</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>37.52737017530985</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>34.39816980427062</v>
       </c>
       <c r="V25" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>136.2749052347506</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9.000252501565797</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.841194405425973e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154575</v>
+        <v>135401.7127154574</v>
       </c>
       <c r="C2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728568</v>
       </c>
       <c r="D2" t="n">
         <v>164208.3539728568</v>
       </c>
       <c r="E2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380013</v>
       </c>
       <c r="F2" t="n">
         <v>161429.3199380012</v>
@@ -26332,13 +26332,13 @@
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380012</v>
       </c>
       <c r="J2" t="n">
+        <v>161429.3199380011</v>
+      </c>
+      <c r="K2" t="n">
         <v>161429.3199380012</v>
-      </c>
-      <c r="K2" t="n">
-        <v>161429.3199380013</v>
       </c>
       <c r="L2" t="n">
         <v>164208.3539728567</v>
@@ -26347,10 +26347,10 @@
         <v>164208.3539728567</v>
       </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
         <v>164208.3539728568</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>1.954454091901425e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289265</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>3.34139713231707e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52108.58832472622</v>
+        <v>52108.58832472612</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731962</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731987</v>
+        <v>8117.312426731896</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,25 +26439,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731956</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.1716898254</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="M4" t="n">
+        <v>16108.17168982545</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982544</v>
       </c>
-      <c r="N4" t="n">
-        <v>16108.17168982536</v>
-      </c>
       <c r="O4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982546</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982543</v>
+        <v>16108.17168982545</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1124396.431625033</v>
+        <v>-1124756.51464075</v>
       </c>
       <c r="C6" t="n">
-        <v>-63047.41872885174</v>
+        <v>-63047.41872885161</v>
       </c>
       <c r="D6" t="n">
-        <v>-63047.41872885173</v>
+        <v>-63047.41872885158</v>
       </c>
       <c r="E6" t="n">
-        <v>-455295.9639371834</v>
+        <v>-455330.7018626193</v>
       </c>
       <c r="F6" t="n">
-        <v>52189.47768736194</v>
+        <v>52154.73976192645</v>
       </c>
       <c r="G6" t="n">
-        <v>52189.47768736214</v>
+        <v>52154.73976192651</v>
       </c>
       <c r="H6" t="n">
-        <v>52189.47768736213</v>
+        <v>52154.73976192641</v>
       </c>
       <c r="I6" t="n">
-        <v>52189.47768736219</v>
+        <v>52154.73976192644</v>
       </c>
       <c r="J6" t="n">
-        <v>-115415.7001226205</v>
+        <v>-115450.4380480563</v>
       </c>
       <c r="K6" t="n">
-        <v>52189.4776873622</v>
+        <v>52154.73976192641</v>
       </c>
       <c r="L6" t="n">
-        <v>25508.34843548409</v>
+        <v>25508.34843548412</v>
       </c>
       <c r="M6" t="n">
-        <v>-87671.22729981065</v>
+        <v>-87671.22729981079</v>
       </c>
       <c r="N6" t="n">
-        <v>44936.06642911564</v>
+        <v>44936.06642911589</v>
       </c>
       <c r="O6" t="n">
-        <v>44936.06642911615</v>
+        <v>44936.06642911586</v>
       </c>
       <c r="P6" t="n">
-        <v>44936.06642911599</v>
+        <v>44936.06642911595</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175397</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,19 +26790,19 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,16 +26814,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996087</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>137.4010188240863</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,10 +27391,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>87.42771639014546</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>157.2934195950421</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>100.0666150287725</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>133.8040863505473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.04538804661567</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,16 +27828,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.9504459708293</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>21.324915016462</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.1713677775785</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>185.9518071292166</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.2805150566151</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28059,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>171.8552240555631</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767384</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730007</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342228</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166598</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190647</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745102</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177246</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405677</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378627</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168762</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.755972606796</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154674</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.7358189575959</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532628</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N15" t="n">
-        <v>359.7096985496639</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460043</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>339.9772972286976</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>197.6412480909875</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226597</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666132</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817577</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558009</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817556</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
@@ -34793,13 +34793,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225039</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.564649540734</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067511</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.005010945728</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376319</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949731</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637952</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402559</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939915</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>222.5037706952078</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235325</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308547</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977099</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870599</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423492</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860246</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295071</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312445</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N15" t="n">
-        <v>228.3679864663306</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.342014319133</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243176</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>197.8432633066793</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.65947400496596</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483007</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445949</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
         <v>479.4543240367771</v>
@@ -36917,16 +36917,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113564</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111713</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
